--- a/Estimering/sigma_lambda_robust_tabel.xlsx
+++ b/Estimering/sigma_lambda_robust_tabel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Sigma</t>
   </si>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +395,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -556,9 +580,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Farve1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -882,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,23 +923,23 @@
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2228,40 +2260,40 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f>SUM(B3:B10)/COUNT(B3:B10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="K11">
+      <c r="I11" s="3"/>
+      <c r="K11" s="2">
         <f>SUM(K3:K10)/COUNT(K3:K10)</f>
         <v>1.3233531165840976E-2</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="T11">
+      <c r="R11" s="3"/>
+      <c r="T11" s="2">
         <f>SUM(T3:T10)/COUNT(T3:T10)</f>
         <v>5.7224189382866298E-3</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AC11">
+      <c r="AA11" s="3"/>
+      <c r="AC11" s="2">
         <f>SUM(AC3:AC10)/COUNT(AC3:AC10)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="1"/>
-      <c r="AL11">
+      <c r="AJ11" s="3"/>
+      <c r="AL11" s="2">
         <f>SUM(AL3:AL10)/COUNT(AL3:AL10)</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="1"/>
-      <c r="AU11">
+      <c r="AS11" s="3"/>
+      <c r="AU11" s="2">
         <f>SUM(AU3:AU10)/COUNT(AU3:AU10)</f>
         <v>1.1221184611821815E-3</v>
       </c>
-      <c r="BB11" s="1"/>
+      <c r="BB11" s="3"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3434,37 +3466,40 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B20">
+    <row r="20" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
         <f>SUM(B12:B19)/COUNT(B12:B19)</f>
         <v>1.3500594683554639</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="K20">
+      <c r="I20" s="5"/>
+      <c r="K20" s="4">
         <f>SUM(K12:K19)/COUNT(K12:K19)</f>
         <v>2.4014509821192333E-2</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="T20">
+      <c r="R20" s="5"/>
+      <c r="T20" s="4">
         <f>SUM(T12:T19)/COUNT(T12:T19)</f>
         <v>1.6134881384588675</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AC20">
+      <c r="AA20" s="5"/>
+      <c r="AC20" s="4">
         <f>SUM(AC12:AC19)/COUNT(AC12:AC19)</f>
         <v>3.1500609993501123</v>
       </c>
-      <c r="AJ20" s="1"/>
-      <c r="AL20">
+      <c r="AJ20" s="5"/>
+      <c r="AL20" s="4">
         <f>SUM(AL12:AL19)/COUNT(AL12:AL19)</f>
         <v>0.67864411253786516</v>
       </c>
-      <c r="AS20" s="1"/>
-      <c r="AU20">
+      <c r="AS20" s="5"/>
+      <c r="AU20" s="4">
         <f>SUM(AU12:AU19)/COUNT(AU12:AU19)</f>
         <v>1.1657953770039955</v>
       </c>
-      <c r="BB20" s="1"/>
+      <c r="BB20" s="5"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4637,37 +4672,40 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B29">
+    <row r="29" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
         <f>SUM(B21:B28)/COUNT(B21:B28)</f>
         <v>0.42695741737205484</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="K29">
+      <c r="I29" s="7"/>
+      <c r="K29" s="6">
         <f>SUM(K21:K28)/COUNT(K21:K28)</f>
         <v>3.4247149506884018E-2</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="T29">
+      <c r="R29" s="7"/>
+      <c r="T29" s="6">
         <f>SUM(T21:T28)/COUNT(T21:T28)</f>
         <v>0.22314191277738896</v>
       </c>
-      <c r="AA29" s="1"/>
-      <c r="AC29">
+      <c r="AA29" s="7"/>
+      <c r="AC29" s="6">
         <f>SUM(AC21:AC28)/COUNT(AC21:AC28)</f>
         <v>0.34923555876710977</v>
       </c>
-      <c r="AJ29" s="1"/>
-      <c r="AL29">
+      <c r="AJ29" s="7"/>
+      <c r="AL29" s="6">
         <f>SUM(AL21:AL28)/COUNT(AL21:AL28)</f>
         <v>0.23568948150178004</v>
       </c>
-      <c r="AS29" s="1"/>
-      <c r="AU29">
+      <c r="AS29" s="7"/>
+      <c r="AU29" s="6">
         <f>SUM(AU21:AU28)/COUNT(AU21:AU28)</f>
         <v>0.14333102674850051</v>
       </c>
-      <c r="BB29" s="1"/>
+      <c r="BB29" s="7"/>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5110,7 +5148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0.30644052189468202</v>
       </c>
@@ -5256,7 +5294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>0.230967652988459</v>
       </c>
@@ -5402,7 +5440,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0.21117645043976799</v>
       </c>
@@ -5548,7 +5586,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0.10678633191174</v>
       </c>
@@ -5694,7 +5732,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0.10225574642385001</v>
       </c>
@@ -5840,33 +5878,37 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B38">
+    <row r="38" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="8">
         <f>SUM(B30:B37)/COUNT(B30:B37)</f>
         <v>0.15939219011992467</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="8">
         <f>SUM(K30:K37)/COUNT(K30:K37)</f>
         <v>1.4638317673810584</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="8">
         <f>SUM(T30:T37)/COUNT(T30:T37)</f>
         <v>1.0034619143351073</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="8">
         <f>SUM(AC30:AC37)/COUNT(AC30:AC37)</f>
         <v>1.5518290338577763</v>
       </c>
-      <c r="AL38">
+      <c r="AL38" s="8">
         <f>SUM(AL30:AL37)/COUNT(AL30:AL37)</f>
         <v>0.41774909633688884</v>
       </c>
-      <c r="AU38">
+      <c r="AU38" s="8">
         <f>SUM(AU30:AU37)/COUNT(AU30:AU37)</f>
         <v>0.97135503676218171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>